--- a/Excel Files/Individual States/Nebraska - Golf Digest Top Courses in each State.xlsx
+++ b/Excel Files/Individual States/Nebraska - Golf Digest Top Courses in each State.xlsx
@@ -846,7 +846,7 @@
         <v>31</v>
       </c>
       <c r="G11">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H11" t="s">
         <v>40</v>
